--- a/biology/Zoologie/Élénie_gris_et_blanc/Élénie_gris_et_blanc.xlsx
+++ b/biology/Zoologie/Élénie_gris_et_blanc/Élénie_gris_et_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_gris_et_blanc</t>
+          <t>Élénie_gris_et_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudelaenia leucospodia
-L'Élénie gris et blanc (Pseudelaenia leucospodia), aussi appelé Élaène grise-et-blanche, Élaène gris-et-blanc et Tyranneau gris et blanc, est une espèce de passereaux de la famille des Tyrannidae[1],[2]. C'est le seul représentant du genre Pseudelaenia.
+L'Élénie gris et blanc (Pseudelaenia leucospodia), aussi appelé Élaène grise-et-blanche, Élaène gris-et-blanc et Tyranneau gris et blanc, est une espèce de passereaux de la famille des Tyrannidae,. C'est le seul représentant du genre Pseudelaenia.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_gris_et_blanc</t>
+          <t>Élénie_gris_et_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit dans les fruticées arides du sud-ouest de l'Équateur et du nord-ouest du Pérou (du département de Tumbes à celui de La Libertad)[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit dans les fruticées arides du sud-ouest de l'Équateur et du nord-ouest du Pérou (du département de Tumbes à celui de La Libertad).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9nie_gris_et_blanc</t>
+          <t>Élénie_gris_et_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est monotypique selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019)[4].
-Les deux sous-espèces précédemment décrites (Pseudelaenia leucospodia leucospodia et Pseudelaenia leucospodia cinereifrons) sont considérées comme identiques depuis les travaux de John W. Fitzpatrick, publiés dans le 9e volume du Handbook of the Birds of the World[5], modification reprise par la suite par le Congrès ornithologique international.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est monotypique selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019).
+Les deux sous-espèces précédemment décrites (Pseudelaenia leucospodia leucospodia et Pseudelaenia leucospodia cinereifrons) sont considérées comme identiques depuis les travaux de John W. Fitzpatrick, publiés dans le 9e volume du Handbook of the Birds of the World, modification reprise par la suite par le Congrès ornithologique international.
 </t>
         </is>
       </c>
